--- a/outputs-HGR-r202-archive/g__TF01-11.xlsx
+++ b/outputs-HGR-r202-archive/g__TF01-11.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -907,29 +907,29 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT38177.fa</t>
+          <t>even_MAG-GUT39357.fa</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.05005561061456228</v>
+        <v>0.1344521996008432</v>
       </c>
       <c r="C13" t="n">
-        <v>0.927740572575288</v>
+        <v>0.8367535834037266</v>
       </c>
       <c r="D13" t="n">
-        <v>0.01480677148975237</v>
+        <v>0.02200810942235231</v>
       </c>
       <c r="E13" t="n">
-        <v>1.257431944875168e-05</v>
+        <v>2.641585356949137e-05</v>
       </c>
       <c r="F13" t="n">
-        <v>0.006920009076797375</v>
+        <v>0.006682537402878278</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0004644619241512491</v>
+        <v>7.715431663023691e-05</v>
       </c>
       <c r="H13" t="n">
-        <v>0.927740572575288</v>
+        <v>0.8367535834037266</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
@@ -945,29 +945,29 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT39357.fa</t>
+          <t>even_MAG-GUT57273.fa</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.1344521996008432</v>
+        <v>0.1418988909992449</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8367535834037266</v>
+        <v>0.8212694805016549</v>
       </c>
       <c r="D14" t="n">
-        <v>0.02200810942235231</v>
+        <v>0.0273396136778147</v>
       </c>
       <c r="E14" t="n">
-        <v>2.641585356949137e-05</v>
+        <v>7.435882424382936e-06</v>
       </c>
       <c r="F14" t="n">
-        <v>0.006682537402878278</v>
+        <v>0.006947742885244733</v>
       </c>
       <c r="G14" t="n">
-        <v>7.715431663023691e-05</v>
+        <v>0.002536836053616339</v>
       </c>
       <c r="H14" t="n">
-        <v>0.8367535834037266</v>
+        <v>0.8212694805016549</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
@@ -983,29 +983,29 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT57273.fa</t>
+          <t>even_MAG-GUT57352.fa</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.1418988909992449</v>
+        <v>0.1262294152257564</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8212694805016549</v>
+        <v>0.8257545987952336</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0273396136778147</v>
+        <v>0.03779423506038956</v>
       </c>
       <c r="E15" t="n">
-        <v>7.435882424382936e-06</v>
+        <v>2.295251964824259e-05</v>
       </c>
       <c r="F15" t="n">
-        <v>0.006947742885244733</v>
+        <v>0.00980642852697958</v>
       </c>
       <c r="G15" t="n">
-        <v>0.002536836053616339</v>
+        <v>0.0003923698719926443</v>
       </c>
       <c r="H15" t="n">
-        <v>0.8212694805016549</v>
+        <v>0.8257545987952336</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
@@ -1021,67 +1021,67 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT57352.fa</t>
+          <t>even_MAG-GUT57680.fa</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.1262294152257564</v>
+        <v>0.05205195274400558</v>
       </c>
       <c r="C16" t="n">
-        <v>0.8257545987952336</v>
+        <v>0.01999158399173936</v>
       </c>
       <c r="D16" t="n">
-        <v>0.03779423506038956</v>
+        <v>0.0004659394709686568</v>
       </c>
       <c r="E16" t="n">
-        <v>2.295251964824259e-05</v>
+        <v>1.345136551378005e-06</v>
       </c>
       <c r="F16" t="n">
-        <v>0.00980642852697958</v>
+        <v>0.007827899674827528</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0003923698719926443</v>
+        <v>0.9196612789819075</v>
       </c>
       <c r="H16" t="n">
-        <v>0.8257545987952336</v>
+        <v>0.9196612789819075</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>s__TF01-11 sp001414325</t>
+          <t>s__TF01-11 sp003529475</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>s__TF01-11 sp001414325</t>
+          <t>s__TF01-11 sp003529475</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT57680.fa</t>
+          <t>even_MAG-GUT60850.fa</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.05205195274400558</v>
+        <v>0.033493771393333</v>
       </c>
       <c r="C17" t="n">
-        <v>0.01999158399173936</v>
+        <v>0.008120952296983465</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0004659394709686568</v>
+        <v>0.0008901904168257951</v>
       </c>
       <c r="E17" t="n">
-        <v>1.345136551378005e-06</v>
+        <v>6.325533014593922e-08</v>
       </c>
       <c r="F17" t="n">
-        <v>0.007827899674827528</v>
+        <v>0.002742552609715729</v>
       </c>
       <c r="G17" t="n">
-        <v>0.9196612789819075</v>
+        <v>0.9547524700278119</v>
       </c>
       <c r="H17" t="n">
-        <v>0.9196612789819075</v>
+        <v>0.9547524700278119</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
@@ -1097,112 +1097,74 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT60850.fa</t>
+          <t>even_MAG-GUT73422.fa</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.033493771393333</v>
+        <v>0.05907475078620365</v>
       </c>
       <c r="C18" t="n">
-        <v>0.008120952296983465</v>
+        <v>0.9145678395859278</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0008901904168257951</v>
+        <v>0.02136905878908618</v>
       </c>
       <c r="E18" t="n">
-        <v>6.325533014593922e-08</v>
+        <v>6.723897782382406e-05</v>
       </c>
       <c r="F18" t="n">
-        <v>0.002742552609715729</v>
+        <v>0.004822930384194788</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9547524700278119</v>
+        <v>9.818147676380068e-05</v>
       </c>
       <c r="H18" t="n">
-        <v>0.9547524700278119</v>
+        <v>0.9145678395859278</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>s__TF01-11 sp003529475</t>
+          <t>s__TF01-11 sp001414325</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>s__TF01-11 sp003529475</t>
+          <t>s__TF01-11 sp001414325</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT73422.fa</t>
+          <t>even_MAG-GUT8851.fa</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.05907475078620365</v>
+        <v>0.03958375327906492</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9145678395859278</v>
+        <v>0.01879193526916806</v>
       </c>
       <c r="D19" t="n">
-        <v>0.02136905878908618</v>
+        <v>0.001087830991818035</v>
       </c>
       <c r="E19" t="n">
-        <v>6.723897782382406e-05</v>
+        <v>6.68089801996191e-07</v>
       </c>
       <c r="F19" t="n">
-        <v>0.004822930384194788</v>
+        <v>0.001645693350716953</v>
       </c>
       <c r="G19" t="n">
-        <v>9.818147676380068e-05</v>
+        <v>0.9388901190194301</v>
       </c>
       <c r="H19" t="n">
-        <v>0.9145678395859278</v>
+        <v>0.9388901190194301</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>s__TF01-11 sp001414325</t>
+          <t>s__TF01-11 sp003529475</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
-        <is>
-          <t>s__TF01-11 sp001414325</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT8851.fa</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>0.03958375327906492</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.01879193526916806</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0.001087830991818035</v>
-      </c>
-      <c r="E20" t="n">
-        <v>6.68089801996191e-07</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0.001645693350716953</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0.9388901190194301</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0.9388901190194301</v>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>s__TF01-11 sp003529475</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
         <is>
           <t>s__TF01-11 sp003529475</t>
         </is>
